--- a/public/mangos_game/Assets.xlsx
+++ b/public/mangos_game/Assets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\CS5\git repository\public\mangos_game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0ED34A-5E34-4A81-A8CF-7564A579AF6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C5B550-0AFE-4C6B-BB16-E36582C0427B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7E3EC852-6885-4E01-BA36-ECA6C0A8927D}"/>
+    <workbookView xWindow="340" yWindow="1410" windowWidth="14400" windowHeight="7360" xr2:uid="{7E3EC852-6885-4E01-BA36-ECA6C0A8927D}"/>
   </bookViews>
   <sheets>
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Asset Name</t>
   </si>
@@ -79,6 +79,30 @@
   </si>
   <si>
     <t>https://www.fesliyanstudios.com/royalty-free-sound-effects-download/clock-ticking-46 (Clock-Ticking-C-www.fesliyanstudios.com)</t>
+  </si>
+  <si>
+    <t>wav</t>
+  </si>
+  <si>
+    <t>mixkit-game-show-happy-timer-666</t>
+  </si>
+  <si>
+    <t>Background Game show timer</t>
+  </si>
+  <si>
+    <t>https://mixkit.co/free-sound-effects/game-show/</t>
+  </si>
+  <si>
+    <t>mixkit-game-show-suspense-waiting-667</t>
+  </si>
+  <si>
+    <t>Good-Morning-Doctor-Weird</t>
+  </si>
+  <si>
+    <t>Looping lobby/intro music</t>
+  </si>
+  <si>
+    <t>http://soundimage.org/wp-content/uploads/2016/06/Good-Morning-Doctor-Weird.mp3</t>
   </si>
 </sst>
 </file>
@@ -441,13 +465,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861FC0A8-580E-407C-B918-27B2E7524EEA}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="56.36328125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="32.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -503,6 +532,48 @@
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/public/mangos_game/Assets.xlsx
+++ b/public/mangos_game/Assets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\CS5\git repository\public\mangos_game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C5B550-0AFE-4C6B-BB16-E36582C0427B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771343DA-1A49-4167-9DBA-8B7BF99B6E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="1410" windowWidth="14400" windowHeight="7360" xr2:uid="{7E3EC852-6885-4E01-BA36-ECA6C0A8927D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7E3EC852-6885-4E01-BA36-ECA6C0A8927D}"/>
   </bookViews>
   <sheets>
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/public/mangos_game/Assets.xlsx
+++ b/public/mangos_game/Assets.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\CS5\git repository\public\mangos_game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52936625b933baa5/Documents/CS5project/public/mangos_game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771343DA-1A49-4167-9DBA-8B7BF99B6E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{771343DA-1A49-4167-9DBA-8B7BF99B6E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07242D8F-08F7-4C30-B5AE-6DFC86292F60}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7E3EC852-6885-4E01-BA36-ECA6C0A8927D}"/>
   </bookViews>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Asset Name</t>
   </si>
@@ -103,13 +94,34 @@
   </si>
   <si>
     <t>http://soundimage.org/wp-content/uploads/2016/06/Good-Morning-Doctor-Weird.mp3</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/2c/31/10/2c31108ca2da084496139a03adb531c4.png</t>
+  </si>
+  <si>
+    <t>mango_alt</t>
+  </si>
+  <si>
+    <t>jpg</t>
+  </si>
+  <si>
+    <t>Mango icon 2</t>
+  </si>
+  <si>
+    <t>mango_prim</t>
+  </si>
+  <si>
+    <t>Mango icon 1</t>
+  </si>
+  <si>
+    <t>https://image.freepik.com/free-vector/mango-cartoon-icon_22350-19.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +136,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,9 +165,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -465,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861FC0A8-580E-407C-B918-27B2E7524EEA}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -576,6 +597,34 @@
         <v>22</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{88E13882-953D-40F2-B88A-BB08E4BD466D}"/>
@@ -583,5 +632,6 @@
     <hyperlink ref="D4" r:id="rId3" xr:uid="{36851782-77FD-4314-B606-7AD2B6125F2B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>